--- a/src/main/java/OrderTables404H.xlsx
+++ b/src/main/java/OrderTables404H.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F77A2C3-DAFF-4FB5-9551-996702D7F908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D41A96-202E-4B8B-9CCA-518BA6130B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="25515" windowHeight="12630" tabRatio="300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="345" windowWidth="10515" windowHeight="11355" tabRatio="560" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAN18-64" sheetId="1" r:id="rId1"/>
@@ -1149,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="AM7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="BA12" sqref="BA12"/>
@@ -4912,7 +4912,7 @@
   <dimension ref="A1:AY22"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="BH12" sqref="BH12"/>
@@ -7459,11 +7459,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AR17"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/OrderTables404H.xlsx
+++ b/src/main/java/OrderTables404H.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D41A96-202E-4B8B-9CCA-518BA6130B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58ECB78-3C01-4C30-9831-BB07F8A79465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="345" windowWidth="10515" windowHeight="11355" tabRatio="560" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAN18-64" sheetId="1" r:id="rId1"/>
@@ -14,17 +14,6 @@
     <sheet name="WOMAN65-99" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -301,9 +290,6 @@
     <t>ФГС</t>
   </si>
   <si>
-    <t>Холестрин крови</t>
-  </si>
-  <si>
     <t>Итоговый осмотр терапевта</t>
   </si>
   <si>
@@ -315,12 +301,15 @@
   <si>
     <t>67</t>
   </si>
+  <si>
+    <t>Исследование кала на скрытую кровь иммунохимическим методом (в случае если при обращении гражданина для прохождения профилактического медицинского осмотра, диспансеризации установлено, что исследование не проводилось ранее в сроки, рекомендованные в пунктах 16 и 17 настоящего порядка, то исследование проводится при обращении, график последующих исследований смещается согласно рекомендуемой частоте проведения исследования)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +336,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -535,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -608,11 +603,9 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,9 +631,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -708,41 +698,14 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -790,6 +753,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1150,10 +1123,10 @@
   <dimension ref="A1:AY19"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AM7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BA12" sqref="BA12"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,69 +1140,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="39" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="42"/>
-      <c r="AX1" s="42"/>
-      <c r="AY1" s="43"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="39"/>
+      <c r="AR1" s="39"/>
+      <c r="AS1" s="39"/>
+      <c r="AT1" s="39"/>
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="40"/>
     </row>
     <row r="2" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="2">
         <v>18</v>
       </c>
@@ -1373,10 +1346,10 @@
       </c>
     </row>
     <row r="3" spans="1:51" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="48" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1528,8 +1501,8 @@
       </c>
     </row>
     <row r="4" spans="1:51" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1677,8 +1650,8 @@
       </c>
     </row>
     <row r="5" spans="1:51" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
@@ -1828,8 +1801,8 @@
       </c>
     </row>
     <row r="6" spans="1:51" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
@@ -1977,8 +1950,8 @@
       </c>
     </row>
     <row r="7" spans="1:51" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2128,8 +2101,8 @@
       </c>
     </row>
     <row r="8" spans="1:51" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
@@ -2229,8 +2202,8 @@
       <c r="AY8" s="10"/>
     </row>
     <row r="9" spans="1:51" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="52"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
@@ -2336,8 +2309,8 @@
       </c>
     </row>
     <row r="10" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="52"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
@@ -2441,8 +2414,8 @@
       </c>
     </row>
     <row r="11" spans="1:51" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
@@ -2558,8 +2531,8 @@
       </c>
     </row>
     <row r="12" spans="1:51" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="52"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="7" t="s">
         <v>13</v>
       </c>
@@ -2665,13 +2638,13 @@
       </c>
     </row>
     <row r="13" spans="1:51" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>4</v>
@@ -2816,8 +2789,8 @@
       </c>
     </row>
     <row r="14" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="12" t="s">
         <v>15</v>
       </c>
@@ -2923,8 +2896,8 @@
       </c>
     </row>
     <row r="15" spans="1:51" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="12" t="s">
         <v>16</v>
       </c>
@@ -3012,8 +2985,8 @@
       <c r="AY15" s="2"/>
     </row>
     <row r="16" spans="1:51" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="12" t="s">
         <v>17</v>
       </c>
@@ -3095,8 +3068,8 @@
       </c>
     </row>
     <row r="17" spans="1:51" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="12" t="s">
         <v>18</v>
       </c>
@@ -3161,187 +3134,187 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:51" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
-      <c r="B18" s="37"/>
+    <row r="18" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE18" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
       <c r="AF18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AG18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY18" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
     </row>
-    <row r="19" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="38"/>
+    <row r="19" spans="1:51" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="46"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="K19" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
+      <c r="Q19" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
+      <c r="T19" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
+      <c r="W19" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
+      <c r="Z19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="AF19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" s="2"/>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="2"/>
-      <c r="AN19" s="2"/>
-      <c r="AO19" s="2"/>
-      <c r="AP19" s="2"/>
-      <c r="AQ19" s="2"/>
-      <c r="AR19" s="2"/>
-      <c r="AS19" s="2"/>
-      <c r="AT19" s="2"/>
-      <c r="AU19" s="2"/>
-      <c r="AV19" s="2"/>
-      <c r="AW19" s="2"/>
-      <c r="AX19" s="2"/>
-      <c r="AY19" s="2"/>
+      <c r="AG19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY19" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3354,22 +3327,17 @@
     <mergeCell ref="D1:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:Z13">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AY19">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
-      <formula>"+"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:Z19">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+  <conditionalFormatting sqref="AA3:AY19 E14:Z19">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AY13">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3386,7 +3354,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="AM11" sqref="AM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3399,53 +3367,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="43"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="40"/>
     </row>
     <row r="2" spans="1:37" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="17">
         <v>65</v>
       </c>
@@ -3896,7 +3864,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>4</v>
@@ -4425,7 +4393,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>4</v>
@@ -4647,8 +4615,8 @@
       </c>
     </row>
     <row r="13" spans="1:37" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>27</v>
+      <c r="A13" s="59" t="s">
+        <v>52</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>46</v>
@@ -4783,7 +4751,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>4</v>
@@ -4898,7 +4866,7 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AK15">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4912,85 +4880,85 @@
   <dimension ref="A1:AY22"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BH12" sqref="BH12"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="38.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="27" customWidth="1"/>
     <col min="5" max="51" width="9.140625" style="15"/>
     <col min="52" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="39" t="s">
+      <c r="A1" s="45"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="42"/>
-      <c r="AX1" s="42"/>
-      <c r="AY1" s="43"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="39"/>
+      <c r="AR1" s="39"/>
+      <c r="AS1" s="39"/>
+      <c r="AT1" s="39"/>
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="40"/>
     </row>
     <row r="2" spans="1:51" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="57"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="17">
         <v>18</v>
       </c>
@@ -5134,10 +5102,10 @@
       </c>
     </row>
     <row r="3" spans="1:51" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="48" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -5289,8 +5257,8 @@
       </c>
     </row>
     <row r="4" spans="1:51" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
@@ -5440,8 +5408,8 @@
       </c>
     </row>
     <row r="5" spans="1:51" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
@@ -5591,8 +5559,8 @@
       </c>
     </row>
     <row r="6" spans="1:51" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
@@ -5742,8 +5710,8 @@
       </c>
     </row>
     <row r="7" spans="1:51" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
@@ -5893,8 +5861,8 @@
       </c>
     </row>
     <row r="8" spans="1:51" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
@@ -5994,8 +5962,8 @@
       <c r="AY8" s="10"/>
     </row>
     <row r="9" spans="1:51" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="52"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
@@ -6101,8 +6069,8 @@
       </c>
     </row>
     <row r="10" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="52"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
@@ -6206,8 +6174,8 @@
       </c>
     </row>
     <row r="11" spans="1:51" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
@@ -6323,8 +6291,8 @@
       </c>
     </row>
     <row r="12" spans="1:51" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="52"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="7" t="s">
         <v>13</v>
       </c>
@@ -6430,8 +6398,8 @@
       </c>
     </row>
     <row r="13" spans="1:51" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="52"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="7" t="s">
         <v>22</v>
       </c>
@@ -6531,13 +6499,13 @@
       <c r="AY13" s="10"/>
     </row>
     <row r="14" spans="1:51" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="53"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>4</v>
@@ -6682,8 +6650,8 @@
       </c>
     </row>
     <row r="15" spans="1:51" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="12" t="s">
         <v>16</v>
       </c>
@@ -6771,8 +6739,8 @@
       <c r="AY15" s="2"/>
     </row>
     <row r="16" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="12" t="s">
         <v>15</v>
       </c>
@@ -6877,9 +6845,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:51" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
-      <c r="B17" s="26"/>
+    <row r="17" spans="1:51" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="46"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
@@ -6960,9 +6928,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:51" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
-      <c r="B18" s="26"/>
+    <row r="18" spans="1:51" ht="180.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="12" t="s">
         <v>28</v>
       </c>
@@ -7044,8 +7012,8 @@
       </c>
     </row>
     <row r="19" spans="1:51" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="12" t="s">
         <v>22</v>
       </c>
@@ -7150,10 +7118,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:51" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27" t="s">
+    <row r="20" spans="1:51" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="46"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="26" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="24" t="s">
@@ -7239,209 +7207,205 @@
       </c>
       <c r="AY20" s="2"/>
     </row>
-    <row r="21" spans="1:51" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
-      <c r="B21" s="26"/>
+    <row r="21" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="46"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>4</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="13"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
-      <c r="Z21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE21" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
       <c r="AF21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AG21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY21" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
     </row>
-    <row r="22" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="28"/>
+    <row r="22" spans="1:51" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="46"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="K22" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="N22" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
+      <c r="Q22" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
+      <c r="T22" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
+      <c r="W22" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
+      <c r="Z22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="AF22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
-      <c r="AI22" s="2"/>
-      <c r="AJ22" s="2"/>
-      <c r="AK22" s="2"/>
-      <c r="AL22" s="2"/>
-      <c r="AM22" s="2"/>
-      <c r="AN22" s="2"/>
-      <c r="AO22" s="2"/>
-      <c r="AP22" s="2"/>
-      <c r="AQ22" s="2"/>
-      <c r="AR22" s="2"/>
-      <c r="AS22" s="2"/>
-      <c r="AT22" s="2"/>
-      <c r="AU22" s="2"/>
-      <c r="AV22" s="2"/>
-      <c r="AW22" s="2"/>
-      <c r="AX22" s="2"/>
-      <c r="AY22" s="2"/>
+      <c r="AG22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY22" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="E1:AY1"/>
-    <mergeCell ref="A3:A22"/>
     <mergeCell ref="B3:B14"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A22"/>
+    <mergeCell ref="B15:B22"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:Z14">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AY22">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"+"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15:Z22">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="AA3:AY22 E15:Z22">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7463,60 +7427,60 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.140625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="33" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="30" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:44" s="28" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="60"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="57"/>
       <c r="AL1" s="16"/>
       <c r="AM1" s="16"/>
       <c r="AN1" s="16"/>
@@ -7525,16 +7489,16 @@
       <c r="AQ1" s="1"/>
     </row>
     <row r="2" spans="1:44" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>51</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>52</v>
       </c>
       <c r="F2" s="17">
         <v>68</v>
@@ -7629,7 +7593,7 @@
       <c r="AJ2" s="17">
         <v>98</v>
       </c>
-      <c r="AK2" s="31">
+      <c r="AK2" s="29">
         <v>99</v>
       </c>
       <c r="AL2" s="16"/>
@@ -7641,7 +7605,7 @@
       <c r="AR2" s="16"/>
     </row>
     <row r="3" spans="1:44" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -7754,7 +7718,7 @@
       </c>
     </row>
     <row r="4" spans="1:44" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -7867,7 +7831,7 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -7980,7 +7944,7 @@
       </c>
     </row>
     <row r="6" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -8093,7 +8057,7 @@
       </c>
     </row>
     <row r="7" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -8202,7 +8166,7 @@
       </c>
     </row>
     <row r="8" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -8279,7 +8243,7 @@
       <c r="AK8" s="2"/>
     </row>
     <row r="9" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -8392,7 +8356,7 @@
       </c>
     </row>
     <row r="10" spans="1:44" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="31" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -8505,11 +8469,11 @@
       </c>
     </row>
     <row r="11" spans="1:44" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -8618,7 +8582,7 @@
       </c>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -8731,7 +8695,7 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -8796,7 +8760,7 @@
       <c r="AK13" s="2"/>
     </row>
     <row r="14" spans="1:44" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -8849,7 +8813,7 @@
       <c r="AK14" s="2"/>
     </row>
     <row r="15" spans="1:44" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -8916,7 +8880,7 @@
       <c r="AK15" s="2"/>
     </row>
     <row r="16" spans="1:44" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -9029,11 +8993,11 @@
       </c>
     </row>
     <row r="17" spans="1:37" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="31" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
